--- a/biology/Zoologie/Harpadon_erythraeus/Harpadon_erythraeus.xlsx
+++ b/biology/Zoologie/Harpadon_erythraeus/Harpadon_erythraeus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Harpadon erythraeus est une espèce de poissons de la famille des Synodontidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Harpadon erythraeus a été décrite pour la première fois en 1983 par l'ichtyologiste allemand Wolfgang Klausewitz (d) (1921-2018)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Harpadon erythraeus a été décrite pour la première fois en 1983 par l'ichtyologiste allemand Wolfgang Klausewitz (d) (1921-2018).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la mer Rouge et du nord-ouest de l'Océan Indien, où elle évolue généralement entre 779 et 1 150 m de profondeur[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la mer Rouge et du nord-ouest de l'Océan Indien, où elle évolue généralement entre 779 et 1 150 m de profondeur.
 </t>
         </is>
       </c>
@@ -574,6 +590,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -599,9 +617,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Harpadon erythraeus tire son nom de la mer Rouge d'où il est endémique[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Harpadon erythraeus tire son nom de la mer Rouge d'où il est endémique.
 </t>
         </is>
       </c>
@@ -627,41 +647,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Comportement</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Prédateurs
-Proies</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Harpadon_erythraeus</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Harpadon_erythraeus</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(de) Wolfgang Klausewitz, « Tiefenwasser- und Tiefseefische aus dem Roten Meer. VII: Harpadon erythraeus n.sp. aus der Tiefsee des zentralen Roten Meeres (Pisces: Teleostei: Scopelomorpha: Myctophiformes: Harpadontidae) », Senckenbergiana Biologica, Francfort-sur-le-Main, vol. 64, nos 1/3,‎ 30 novembre 1983, p. 34-45 (ISSN 0037-2102).</t>
         </is>
